--- a/Chapter_2_Code/Data/mtcars_new.xlsx
+++ b/Chapter_2_Code/Data/mtcars_new.xlsx
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>71.1</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E21">
         <v>65</v>
@@ -1584,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>95.1</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E29">
         <v>113</v>
